--- a/data/2024 Naeem-Mix13,°C,food/21_days.xlsx
+++ b/data/2024 Naeem-Mix13,°C,food/21_days.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>concentration</t>
   </si>
@@ -35,6 +35,10 @@
   </si>
   <si>
     <t>info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.48
+</t>
   </si>
   <si>
     <t>days</t>
@@ -441,7 +445,7 @@
     <col min="12" max="12" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -482,8 +486,8 @@
       <c r="D2" s="6">
         <v>66.6633333333333</v>
       </c>
-      <c r="E2" s="6">
-        <v>56.665</v>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -491,13 +495,13 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L2" s="2">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="6">
         <v>0.001</v>
       </c>
@@ -521,7 +525,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="6">
         <v>0.01</v>
       </c>
@@ -543,11 +547,11 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="6">
         <v>0.0316</v>
       </c>
@@ -571,7 +575,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="6">
         <v>0.1</v>
       </c>
@@ -595,7 +599,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="6">
         <v>0.316</v>
       </c>
@@ -619,7 +623,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -643,7 +647,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="6">
         <v>3.16</v>
       </c>

--- a/data/2024 Naeem-Mix13,°C,food/21_days.xlsx
+++ b/data/2024 Naeem-Mix13,°C,food/21_days.xlsx
@@ -445,7 +445,7 @@
     <col min="12" max="12" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="6">
         <v>0.001</v>
       </c>
@@ -525,7 +525,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="6">
         <v>0.01</v>
       </c>
@@ -549,9 +549,11 @@
       <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="L4" s="5">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="6">
         <v>0.0316</v>
       </c>
@@ -575,7 +577,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="6">
         <v>0.1</v>
       </c>
@@ -599,7 +601,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="6">
         <v>0.316</v>
       </c>
@@ -623,7 +625,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -647,7 +649,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="6">
         <v>3.16</v>
       </c>
